--- a/verification/proxy_modelb.xlsx
+++ b/verification/proxy_modelb.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV22"/>
+  <dimension ref="A1:AX22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,156 +585,6 @@
       <c r="AX1" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="n">
-        <v>99</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -887,156 +737,6 @@
       <c r="AX2" t="n">
         <v>27.48053169250488</v>
       </c>
-      <c r="AY2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>27.48053169250488</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1188,156 +888,6 @@
       </c>
       <c r="AX3" t="n">
         <v>29.78464889526367</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>8.337299346923828</v>
       </c>
     </row>
     <row r="4">
@@ -1491,156 +1041,6 @@
       <c r="AX4" t="n">
         <v>33.88217926025391</v>
       </c>
-      <c r="AY4" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>27.48053169250488</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>29.78464889526367</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1793,156 +1193,6 @@
       <c r="AX5" t="n">
         <v>20.01820945739746</v>
       </c>
-      <c r="AY5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>8.337299346923828</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>33.88217926025391</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2093,156 +1343,6 @@
         <v>36.93310928344727</v>
       </c>
       <c r="AX6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CV6" t="n">
         <v>19.6088809967041</v>
       </c>
     </row>
@@ -2397,156 +1497,6 @@
       <c r="AX7" t="n">
         <v>36.93310928344727</v>
       </c>
-      <c r="AY7" t="n">
-        <v>33.88217926025391</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>29.78464889526367</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>19.6088809967041</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2699,156 +1649,6 @@
       <c r="AX8" t="n">
         <v>30.82947158813477</v>
       </c>
-      <c r="AY8" t="n">
-        <v>20.01820945739746</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>36.93310928344727</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3001,156 +1801,6 @@
       <c r="AX9" t="n">
         <v>30.82947158813477</v>
       </c>
-      <c r="AY9" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>36.93310928344727</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3302,156 +1952,6 @@
       </c>
       <c r="AX10" t="n">
         <v>30.82947158813477</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>19.6088809967041</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>35.67650985717773</v>
       </c>
     </row>
     <row r="11">
@@ -3605,156 +2105,6 @@
       <c r="AX11" t="n">
         <v>21.28990364074707</v>
       </c>
-      <c r="AY11" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>30.82947158813477</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3907,156 +2257,6 @@
       <c r="AX12" t="n">
         <v>30.82947158813477</v>
       </c>
-      <c r="AY12" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>15.69698238372803</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>32.04039001464844</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>21.28990364074707</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4208,156 +2408,6 @@
       </c>
       <c r="AX13" t="n">
         <v>30.82947158813477</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>36.93310928344727</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>33.67959976196289</v>
       </c>
     </row>
     <row r="14">
@@ -4511,156 +2561,6 @@
       <c r="AX14" t="n">
         <v>38.43355941772461</v>
       </c>
-      <c r="AY14" t="n">
-        <v>35.67650985717773</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>27.35860824584961</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4813,156 +2713,6 @@
       <c r="AX15" t="n">
         <v>38.43355941772461</v>
       </c>
-      <c r="AY15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>27.35860824584961</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5115,156 +2865,6 @@
       <c r="AX16" t="n">
         <v>38.43355941772461</v>
       </c>
-      <c r="AY16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>30.82947158813477</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5417,156 +3017,6 @@
       <c r="AX17" t="n">
         <v>38.43355941772461</v>
       </c>
-      <c r="AY17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>21.28990364074707</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>38.43355941772461</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5718,156 +3168,6 @@
       </c>
       <c r="AX18" t="n">
         <v>39.47100830078125</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>27.95387268066406</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>33.67959976196289</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>38.43355941772461</v>
       </c>
     </row>
     <row r="19">
@@ -6021,156 +3321,6 @@
       <c r="AX19" t="n">
         <v>39.47100830078125</v>
       </c>
-      <c r="AY19" t="n">
-        <v>35.82757186889648</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>38.86981582641602</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>27.35860824584961</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -6323,156 +3473,6 @@
       <c r="AX20" t="n">
         <v>31.81417465209961</v>
       </c>
-      <c r="AY20" t="n">
-        <v>30.82947158813477</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>27.35860824584961</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -6625,156 +3625,6 @@
       <c r="AX21" t="n">
         <v>31.81417465209961</v>
       </c>
-      <c r="AY21" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>38.43355941772461</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>39.47100830078125</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>31.81417465209961</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -6925,156 +3775,6 @@
         <v>31.81417465209961</v>
       </c>
       <c r="AX22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>20.68070411682129</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>28.74059677124023</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>27.35860824584961</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>31.81417465209961</v>
-      </c>
-      <c r="CV22" t="n">
         <v>31.81417465209961</v>
       </c>
     </row>
